--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H2">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J2">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>0.0723020210435</v>
+        <v>0.15292955405175</v>
       </c>
       <c r="R2">
-        <v>0.289208084174</v>
+        <v>0.6117182162070001</v>
       </c>
       <c r="S2">
-        <v>0.0001413596563201606</v>
+        <v>0.0007164777691962169</v>
       </c>
       <c r="T2">
-        <v>9.827751642224241E-05</v>
+        <v>0.0004573950921002664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H3">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J3">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>0.9476014995691666</v>
+        <v>0.6989493298025</v>
       </c>
       <c r="R3">
-        <v>5.685608997415</v>
+        <v>4.193695978815</v>
       </c>
       <c r="S3">
-        <v>0.001852681576175782</v>
+        <v>0.00327459044592928</v>
       </c>
       <c r="T3">
-        <v>0.001932060554979934</v>
+        <v>0.003135718223930592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H4">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J4">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>2.471293886654833</v>
+        <v>2.52741342245</v>
       </c>
       <c r="R4">
-        <v>14.827763319929</v>
+        <v>15.1644805347</v>
       </c>
       <c r="S4">
-        <v>0.004831694182842583</v>
+        <v>0.0118409782986798</v>
       </c>
       <c r="T4">
-        <v>0.005038710302104522</v>
+        <v>0.01133881383135837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H5">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J5">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>1.6887065406965</v>
+        <v>0.7244833452780001</v>
       </c>
       <c r="R5">
-        <v>6.754826162786</v>
+        <v>2.897933381112</v>
       </c>
       <c r="S5">
-        <v>0.003301636285863202</v>
+        <v>0.003394217777349584</v>
       </c>
       <c r="T5">
-        <v>0.002295397589035563</v>
+        <v>0.002166848183748744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H6">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I6">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J6">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>0.09715130506383333</v>
+        <v>3.2589821979645</v>
       </c>
       <c r="R6">
-        <v>0.582907830383</v>
+        <v>19.553893187787</v>
       </c>
       <c r="S6">
-        <v>0.0001899431702831104</v>
+        <v>0.01526839144680726</v>
       </c>
       <c r="T6">
-        <v>0.0001980813711924208</v>
+        <v>0.01462087369410638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H7">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I7">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J7">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>2.889227555456333</v>
+        <v>1.2728114635355</v>
       </c>
       <c r="R7">
-        <v>17.335365332738</v>
+        <v>7.636868781213</v>
       </c>
       <c r="S7">
-        <v>0.005648807714853804</v>
+        <v>0.00596314508111816</v>
       </c>
       <c r="T7">
-        <v>0.005890833432404072</v>
+        <v>0.005710253850538508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H8">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I8">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J8">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>0.2132655205953333</v>
+        <v>0.6115636705643334</v>
       </c>
       <c r="R8">
-        <v>1.279593123572</v>
+        <v>3.669382023386</v>
       </c>
       <c r="S8">
-        <v>0.0004169612448061255</v>
+        <v>0.002865187027610832</v>
       </c>
       <c r="T8">
-        <v>0.0004348261376399697</v>
+        <v>0.002743677209654584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H9">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I9">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J9">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>2.795090983707778</v>
       </c>
       <c r="R9">
-        <v>25.15581885336999</v>
+        <v>25.15581885337</v>
       </c>
       <c r="S9">
-        <v>0.005464758732024847</v>
+        <v>0.01309505258891776</v>
       </c>
       <c r="T9">
-        <v>0.00854834818168365</v>
+        <v>0.01880955606102339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,13 +1042,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H10">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I10">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J10">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>7.289447371940221</v>
+        <v>10.10709956784445</v>
       </c>
       <c r="R10">
-        <v>65.60502634746199</v>
+        <v>90.9638961106</v>
       </c>
       <c r="S10">
-        <v>0.01425179767300576</v>
+        <v>0.04735194708645244</v>
       </c>
       <c r="T10">
-        <v>0.02229363357064821</v>
+        <v>0.06801569503241295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1104,13 +1104,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H11">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I11">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J11">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>4.981090076551332</v>
+        <v>2.897201241762667</v>
       </c>
       <c r="R11">
-        <v>29.88654045930799</v>
+        <v>17.383207450576</v>
       </c>
       <c r="S11">
-        <v>0.009738665270469087</v>
+        <v>0.01357344102310139</v>
       </c>
       <c r="T11">
-        <v>0.01015592278197356</v>
+        <v>0.01299780448284656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1166,13 +1166,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H12">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I12">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J12">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>0.2865621645415555</v>
+        <v>13.03263537024733</v>
       </c>
       <c r="R12">
-        <v>2.579059480874</v>
+        <v>117.293718332226</v>
       </c>
       <c r="S12">
-        <v>0.0005602655155321874</v>
+        <v>0.06105813604650127</v>
       </c>
       <c r="T12">
-        <v>0.0008764055168424679</v>
+        <v>0.08770307909417673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H13">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I13">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J13">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>8.522204633284888</v>
+        <v>5.089959592197111</v>
       </c>
       <c r="R13">
-        <v>76.69984169956399</v>
+        <v>45.809636329774</v>
       </c>
       <c r="S13">
-        <v>0.01666199506824899</v>
+        <v>0.02384655416363937</v>
       </c>
       <c r="T13">
-        <v>0.02606382865728327</v>
+        <v>0.03425286720748291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H14">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I14">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J14">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>4.155642357428</v>
+        <v>3.0154837132215</v>
       </c>
       <c r="R14">
-        <v>16.622569429712</v>
+        <v>12.061934852886</v>
       </c>
       <c r="S14">
-        <v>0.008124809887155086</v>
+        <v>0.01412759657407594</v>
       </c>
       <c r="T14">
-        <v>0.005648614023961816</v>
+        <v>0.009018972554311309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H15">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I15">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J15">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>54.46449314608666</v>
+        <v>13.781968655145</v>
       </c>
       <c r="R15">
-        <v>326.78695887652</v>
+        <v>82.69181193086999</v>
       </c>
       <c r="S15">
-        <v>0.106485018283935</v>
+        <v>0.06456877624732389</v>
       </c>
       <c r="T15">
-        <v>0.1110474169810537</v>
+        <v>0.06183047673254066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H16">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I16">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J16">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>142.0404769440253</v>
+        <v>49.8358480101</v>
       </c>
       <c r="R16">
-        <v>852.2428616641519</v>
+        <v>299.0150880606</v>
       </c>
       <c r="S16">
-        <v>0.2777072164037966</v>
+        <v>0.2334818631341557</v>
       </c>
       <c r="T16">
-        <v>0.2896057075034809</v>
+        <v>0.2235801225454537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H17">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I17">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J17">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>97.060363299692</v>
+        <v>14.285451505644</v>
       </c>
       <c r="R17">
-        <v>388.241453198768</v>
+        <v>57.141806022576</v>
       </c>
       <c r="S17">
-        <v>0.1897653675559026</v>
+        <v>0.06692760264808621</v>
       </c>
       <c r="T17">
-        <v>0.1319306336180466</v>
+        <v>0.0427261783873825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H18">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I18">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J18">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>5.583883722417333</v>
+        <v>64.261010898621</v>
       </c>
       <c r="R18">
-        <v>33.503302334504</v>
+        <v>385.566065391726</v>
       </c>
       <c r="S18">
-        <v>0.0109172035932129</v>
+        <v>0.3010640161767403</v>
       </c>
       <c r="T18">
-        <v>0.01138495611138445</v>
+        <v>0.2882961816702031</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H19">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I19">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J19">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>166.0616983649574</v>
+        <v>25.097452628379</v>
       </c>
       <c r="R19">
-        <v>996.370190189744</v>
+        <v>150.584715770274</v>
       </c>
       <c r="S19">
-        <v>0.3246717625595738</v>
+        <v>0.1175820264643147</v>
       </c>
       <c r="T19">
-        <v>0.3385824708485396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.207235</v>
-      </c>
-      <c r="I20">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J20">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.263127</v>
-      </c>
-      <c r="N20">
-        <v>2.526254</v>
-      </c>
-      <c r="O20">
-        <v>0.008853724851211806</v>
-      </c>
-      <c r="P20">
-        <v>0.006359620920621169</v>
-      </c>
-      <c r="Q20">
-        <v>0.08725470794833334</v>
-      </c>
-      <c r="R20">
-        <v>0.5235282476900001</v>
-      </c>
-      <c r="S20">
-        <v>0.0001705940629304337</v>
-      </c>
-      <c r="T20">
-        <v>0.0001779032425971419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.207235</v>
-      </c>
-      <c r="I21">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J21">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>16.55473833333333</v>
-      </c>
-      <c r="N21">
-        <v>49.664215</v>
-      </c>
-      <c r="O21">
-        <v>0.1160382908346841</v>
-      </c>
-      <c r="P21">
-        <v>0.1250252669447441</v>
-      </c>
-      <c r="Q21">
-        <v>1.143573732836111</v>
-      </c>
-      <c r="R21">
-        <v>10.292163595525</v>
-      </c>
-      <c r="S21">
-        <v>0.002235832242548477</v>
-      </c>
-      <c r="T21">
-        <v>0.0034974412270269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.207235</v>
-      </c>
-      <c r="I22">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J22">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>43.17386966666666</v>
-      </c>
-      <c r="N22">
-        <v>129.521609</v>
-      </c>
-      <c r="O22">
-        <v>0.3026216388302571</v>
-      </c>
-      <c r="P22">
-        <v>0.3260591905124801</v>
-      </c>
-      <c r="Q22">
-        <v>2.982378960123889</v>
-      </c>
-      <c r="R22">
-        <v>26.841410641115</v>
-      </c>
-      <c r="S22">
-        <v>0.005830930570612201</v>
-      </c>
-      <c r="T22">
-        <v>0.009121139136246455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.207235</v>
-      </c>
-      <c r="I23">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J23">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.501953</v>
-      </c>
-      <c r="N23">
-        <v>59.003906</v>
-      </c>
-      <c r="O23">
-        <v>0.2067901125028462</v>
-      </c>
-      <c r="P23">
-        <v>0.1485371126561165</v>
-      </c>
-      <c r="Q23">
-        <v>2.037945743318334</v>
-      </c>
-      <c r="R23">
-        <v>12.22767445991</v>
-      </c>
-      <c r="S23">
-        <v>0.003984443390611315</v>
-      </c>
-      <c r="T23">
-        <v>0.004155158667060777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.207235</v>
-      </c>
-      <c r="I24">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J24">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.697247666666667</v>
-      </c>
-      <c r="N24">
-        <v>5.091743</v>
-      </c>
-      <c r="O24">
-        <v>0.0118966373492356</v>
-      </c>
-      <c r="P24">
-        <v>0.01281801248220741</v>
-      </c>
-      <c r="Q24">
-        <v>0.1172430400672222</v>
-      </c>
-      <c r="R24">
-        <v>1.055187360605</v>
-      </c>
-      <c r="S24">
-        <v>0.000229225070207402</v>
-      </c>
-      <c r="T24">
-        <v>0.0003585694827880724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.207235</v>
-      </c>
-      <c r="I25">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J25">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>50.47523266666667</v>
-      </c>
-      <c r="N25">
-        <v>151.425698</v>
-      </c>
-      <c r="O25">
-        <v>0.3537995956317652</v>
-      </c>
-      <c r="P25">
-        <v>0.3812007964838307</v>
-      </c>
-      <c r="Q25">
-        <v>3.486744947225556</v>
-      </c>
-      <c r="R25">
-        <v>31.38070452503</v>
-      </c>
-      <c r="S25">
-        <v>0.006817030289088602</v>
-      </c>
-      <c r="T25">
-        <v>0.01066366354560371</v>
+        <v>0.1125954861467288</v>
       </c>
     </row>
   </sheetData>
